--- a/src/lr10/task1/goods.xlsx
+++ b/src/lr10/task1/goods.xlsx
@@ -1,52 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Товары" r:id="rId3" sheetId="1"/>
+    <sheet name="Товары" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Товар</t>
-  </si>
-  <si>
-    <t>Характеристики</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Книга</t>
-  </si>
-  <si>
-    <t>Жанр: Фантастика, Автор: Френк Герберт</t>
-  </si>
-  <si>
-    <t>Компьютер</t>
-  </si>
-  <si>
-    <t>Процессор: Intel Core i9, ОЗУ: 32 ГБ DDR4, Видеокарта: NVIDIA RTX 4080</t>
+    <t xml:space="preserve">Товар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Характеристики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Книга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жанр: Фантастика, Автор: Френк Герберт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компьютер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Процессор: Intel Core i9, ОЗУ: 32 ГБ DDR4, Видеокарта: NVIDIA RTX 4080</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,11 +77,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -66,57 +89,220 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.09"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" customFormat="false" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>1500.0</v>
+      <c r="C2" s="1" t="n">
+        <v>1500</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" customFormat="false" ht="42.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>300000.0</v>
+      <c r="C3" s="1" t="n">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>